--- a/medicine/Enfance/Le_Journal_des_enfants_(France)/Le_Journal_des_enfants_(France).xlsx
+++ b/medicine/Enfance/Le_Journal_des_enfants_(France)/Le_Journal_des_enfants_(France).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Journal des enfants (le JDE en abrégé) est un hebdomadaire français d'actualité s'adressant aux enfants de huit à quatorze ans et dont la parution s'effectuait chaque jeudi de 1984 à 2024.
@@ -512,14 +524,16 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Journal des enfants est fondé en France en 1984[1] par Béatrice d'Irube et le quotidien régional L'Alsace-Le Pays. Il sert de modèle au Journal des enfants publié en Belgique à partir de 1992.
-En 1989, soit cinq ans après ses débuts, le JDE compte 100 000 abonnés[2].
-En 1993, le JDE compte 150 000 abonnés[2].
-En 2009, le Journal des Enfants obtient le prix mondial du jeune lecteur, catégorie « liberté de la presse »[2] pour un dossier sur les journalistes enlevés à l'étranger[3].
-En 2016, il obtient la médaille d'argent au prix mondial du jeune lecteur, catégorie « Service public » pour un dossier sur les atteintes à la liberté d'expression dans le monde[3].
-Le Journal des enfants annonce le 28 février 2024 que, faute d'assez d'abonnés, son dernier numéro sera celui du 28 mars[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Journal des enfants est fondé en France en 1984 par Béatrice d'Irube et le quotidien régional L'Alsace-Le Pays. Il sert de modèle au Journal des enfants publié en Belgique à partir de 1992.
+En 1989, soit cinq ans après ses débuts, le JDE compte 100 000 abonnés.
+En 1993, le JDE compte 150 000 abonnés.
+En 2009, le Journal des Enfants obtient le prix mondial du jeune lecteur, catégorie « liberté de la presse » pour un dossier sur les journalistes enlevés à l'étranger.
+En 2016, il obtient la médaille d'argent au prix mondial du jeune lecteur, catégorie « Service public » pour un dossier sur les atteintes à la liberté d'expression dans le monde.
+Le Journal des enfants annonce le 28 février 2024 que, faute d'assez d'abonnés, son dernier numéro sera celui du 28 mars.
 </t>
         </is>
       </c>
@@ -548,9 +562,11 @@
           <t>Fermeture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 28 mars 2024, pour des raisons financières, le dernier numéro du Journal des enfants parait, entrainant la fin de l'hebdomadaire après 40 ans d'existence. Le site web cesse également de fonctionner, fermant ainsi définitivement la rédaction[5],[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 28 mars 2024, pour des raisons financières, le dernier numéro du Journal des enfants parait, entrainant la fin de l'hebdomadaire après 40 ans d'existence. Le site web cesse également de fonctionner, fermant ainsi définitivement la rédaction.
 </t>
         </is>
       </c>
@@ -579,7 +595,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Site officiel</t>
         </is>
